--- a/files/corn_cropping_calendar_template.xlsx
+++ b/files/corn_cropping_calendar_template.xlsx
@@ -5,10 +5,10 @@
   <workbookPr dateCompatibility="0" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DA13-ICTU\Music\AMIA Caraga\ACAP13\acap-caraga\server\src\scripts\data\dataset_v2.0\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DA13-ICTU\Videos\FILES\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{BF4D81C4-C008-4887-BD60-2B84F55B2BFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{D5A58AC1-3897-42AC-BDFC-38AC706E1625}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E7923F38-1663-594D-8E78-F7F4F677AEE7}"/>
   </bookViews>
@@ -403,9 +403,6 @@
     <t>San Agustin</t>
   </si>
   <si>
-    <t xml:space="preserve">San Miguel </t>
-  </si>
-  <si>
     <t>Tagbina</t>
   </si>
   <si>
@@ -413,6 +410,9 @@
   </si>
   <si>
     <t>Tandag City</t>
+  </si>
+  <si>
+    <t>San Miguel</t>
   </si>
 </sst>
 </file>
@@ -1353,10 +1353,13 @@
   <dimension ref="A1:AA147"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
-      <selection activeCell="D144" sqref="D144"/>
+      <selection activeCell="D143" sqref="D143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.3984375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -6104,7 +6107,7 @@
         <v>110</v>
       </c>
       <c r="B140" s="5" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C140" t="s">
         <v>50</v>
@@ -6115,7 +6118,7 @@
         <v>110</v>
       </c>
       <c r="B141" s="5" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C141" t="s">
         <v>50</v>
@@ -6126,7 +6129,7 @@
         <v>110</v>
       </c>
       <c r="B142" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C142" t="s">
         <v>50</v>
@@ -6137,7 +6140,7 @@
         <v>110</v>
       </c>
       <c r="B143" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C143" t="s">
         <v>50</v>
@@ -6148,7 +6151,7 @@
         <v>110</v>
       </c>
       <c r="B144" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C144" t="s">
         <v>50</v>
@@ -6159,7 +6162,7 @@
         <v>110</v>
       </c>
       <c r="B145" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C145" t="s">
         <v>50</v>
@@ -6170,7 +6173,7 @@
         <v>110</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C146" t="s">
         <v>50</v>
@@ -6181,7 +6184,7 @@
         <v>110</v>
       </c>
       <c r="B147" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C147" t="s">
         <v>50</v>
